--- a/DormManagement/Server/download/StudentTemplate.xlsx
+++ b/DormManagement/Server/download/StudentTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,7 +404,7 @@
     <col min="4" max="16384" width="8.76171875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,18 +414,21 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="C2" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="C4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="学号只能为十位数字" sqref="B1:B1048576">
-      <formula1>10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
